--- a/Civilworks cost/Valuation/DSE30 DATA.xlsx
+++ b/Civilworks cost/Valuation/DSE30 DATA.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="FCFF" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="FCEE" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +21,188 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+  <si>
+    <t>LINE ITEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACMELAB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATBC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBSCABLES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEACONPHAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEXIMCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRACBANK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSCCL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSRMLTD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BXPHARMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITYBANK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIDCEM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPHISPAT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDLC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFADAUTOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFIC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANKABAFIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LHBL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPETROLEUM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATLIFEINS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLYMPIC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PADMAOIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUBALIBANK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENATA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINGERBD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQURPHARMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMITPOWER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITASGAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPGDCL </t>
+  </si>
+  <si>
+    <t>TRADING CODE</t>
+  </si>
+  <si>
+    <t>LTP*</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>CLOSEP*</t>
+  </si>
+  <si>
+    <t>YCP*</t>
+  </si>
+  <si>
+    <t>% CHANGE</t>
+  </si>
+  <si>
+    <t>TRADE</t>
+  </si>
+  <si>
+    <t>VALUE (mn)</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>NET INCOME</t>
+  </si>
+  <si>
+    <t>DERICIATION AND AMMORTIZATION</t>
+  </si>
+  <si>
+    <t>OTHER NON CASH EXPENSES</t>
+  </si>
+  <si>
+    <t>CHANGE IN ACCOUNTS RECIEVEABLE</t>
+  </si>
+  <si>
+    <t>CHANGE IN INVENTORIES</t>
+  </si>
+  <si>
+    <t>CHANGE IN OTHER CURRENT ASSET</t>
+  </si>
+  <si>
+    <t>CASH FLOW FROM OPERATONS</t>
+  </si>
+  <si>
+    <t>CAPITAL EXENDITURE</t>
+  </si>
+  <si>
+    <t>DIVESTITURES OF ASSET</t>
+  </si>
+  <si>
+    <t>CASH ACQUISITION</t>
+  </si>
+  <si>
+    <t>FCFE BEFORE DEBT</t>
+  </si>
+  <si>
+    <t>DEBT RAISED</t>
+  </si>
+  <si>
+    <t>DEBT PAID</t>
+  </si>
+  <si>
+    <t>FCFE AFTER DEBT</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +230,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,7 +306,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +341,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -333,9 +525,1336 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="12.77734375" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="20" max="23" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.21875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="11" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="13.21875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="7.21875" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>75.3</v>
+      </c>
+      <c r="D2">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="E2">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="G2">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="H2">
+        <v>-1.05</v>
+      </c>
+      <c r="I2">
+        <v>251</v>
+      </c>
+      <c r="J2">
+        <v>13.282999999999999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>176659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1418.8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1439.8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1416</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1418.8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1424.4</v>
+      </c>
+      <c r="H3">
+        <v>-0.39</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1790</v>
+      </c>
+      <c r="J3">
+        <v>146.85300000000001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>103414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>56.2</v>
+      </c>
+      <c r="D4">
+        <v>57.3</v>
+      </c>
+      <c r="E4">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <v>56.2</v>
+      </c>
+      <c r="G4">
+        <v>57.2</v>
+      </c>
+      <c r="H4">
+        <v>-1.75</v>
+      </c>
+      <c r="I4">
+        <v>790</v>
+      </c>
+      <c r="J4">
+        <v>42.997</v>
+      </c>
+      <c r="K4" s="1">
+        <v>762988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>71.7</v>
+      </c>
+      <c r="E5">
+        <v>69.7</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>317</v>
+      </c>
+      <c r="J5">
+        <v>21.474</v>
+      </c>
+      <c r="K5" s="1">
+        <v>305525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>88.9</v>
+      </c>
+      <c r="D6">
+        <v>89.4</v>
+      </c>
+      <c r="E6">
+        <v>85</v>
+      </c>
+      <c r="F6">
+        <v>88.9</v>
+      </c>
+      <c r="G6">
+        <v>83.3</v>
+      </c>
+      <c r="H6">
+        <v>6.72</v>
+      </c>
+      <c r="I6" s="1">
+        <v>11600</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1740.174</v>
+      </c>
+      <c r="K6" s="1">
+        <v>19865933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>48.7</v>
+      </c>
+      <c r="D7">
+        <v>49.7</v>
+      </c>
+      <c r="E7">
+        <v>48.3</v>
+      </c>
+      <c r="F7">
+        <v>48.7</v>
+      </c>
+      <c r="G7">
+        <v>49.7</v>
+      </c>
+      <c r="H7">
+        <v>-2.0099999999999998</v>
+      </c>
+      <c r="I7">
+        <v>482</v>
+      </c>
+      <c r="J7">
+        <v>63.313000000000002</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1297446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>176.1</v>
+      </c>
+      <c r="D8">
+        <v>177.8</v>
+      </c>
+      <c r="E8">
+        <v>170.3</v>
+      </c>
+      <c r="F8">
+        <v>176.1</v>
+      </c>
+      <c r="G8">
+        <v>173.5</v>
+      </c>
+      <c r="H8">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1383</v>
+      </c>
+      <c r="J8">
+        <v>95.444000000000003</v>
+      </c>
+      <c r="K8" s="1">
+        <v>546595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>73</v>
+      </c>
+      <c r="D9">
+        <v>74.5</v>
+      </c>
+      <c r="E9">
+        <v>72</v>
+      </c>
+      <c r="F9">
+        <v>72.8</v>
+      </c>
+      <c r="G9">
+        <v>74.3</v>
+      </c>
+      <c r="H9">
+        <v>-1.75</v>
+      </c>
+      <c r="I9">
+        <v>282</v>
+      </c>
+      <c r="J9">
+        <v>8.5579999999999998</v>
+      </c>
+      <c r="K9" s="1">
+        <v>117229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>208.4</v>
+      </c>
+      <c r="D10">
+        <v>216.9</v>
+      </c>
+      <c r="E10">
+        <v>202.8</v>
+      </c>
+      <c r="F10">
+        <v>208.4</v>
+      </c>
+      <c r="G10">
+        <v>198.2</v>
+      </c>
+      <c r="H10">
+        <v>5.15</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10647</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2597.107</v>
+      </c>
+      <c r="K10" s="1">
+        <v>12526765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G11">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H11">
+        <v>-1.53</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1825</v>
+      </c>
+      <c r="J11">
+        <v>266.40499999999997</v>
+      </c>
+      <c r="K11" s="1">
+        <v>8202512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>120.4</v>
+      </c>
+      <c r="D12">
+        <v>121.7</v>
+      </c>
+      <c r="E12">
+        <v>119.1</v>
+      </c>
+      <c r="F12">
+        <v>120.4</v>
+      </c>
+      <c r="G12">
+        <v>121.1</v>
+      </c>
+      <c r="H12">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="I12">
+        <v>743</v>
+      </c>
+      <c r="J12">
+        <v>33.01</v>
+      </c>
+      <c r="K12" s="1">
+        <v>275145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>37.4</v>
+      </c>
+      <c r="F13">
+        <v>37.6</v>
+      </c>
+      <c r="G13">
+        <v>38.9</v>
+      </c>
+      <c r="H13">
+        <v>-2.31</v>
+      </c>
+      <c r="I13">
+        <v>97</v>
+      </c>
+      <c r="J13">
+        <v>6.8280000000000003</v>
+      </c>
+      <c r="K13" s="1">
+        <v>180756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>372.7</v>
+      </c>
+      <c r="D14">
+        <v>375</v>
+      </c>
+      <c r="E14">
+        <v>371</v>
+      </c>
+      <c r="F14">
+        <v>372.7</v>
+      </c>
+      <c r="G14">
+        <v>373.2</v>
+      </c>
+      <c r="H14">
+        <v>-0.13</v>
+      </c>
+      <c r="I14">
+        <v>575</v>
+      </c>
+      <c r="J14">
+        <v>48.918999999999997</v>
+      </c>
+      <c r="K14" s="1">
+        <v>131387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>32.1</v>
+      </c>
+      <c r="D15">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>32.1</v>
+      </c>
+      <c r="G15">
+        <v>32.9</v>
+      </c>
+      <c r="H15">
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="I15">
+        <v>276</v>
+      </c>
+      <c r="J15">
+        <v>12.603999999999999</v>
+      </c>
+      <c r="K15" s="1">
+        <v>390783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D16">
+        <v>82.5</v>
+      </c>
+      <c r="E16">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="F16">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="G16">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="H16">
+        <v>-1.84</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1034</v>
+      </c>
+      <c r="J16">
+        <v>127.40600000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1576444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>50.8</v>
+      </c>
+      <c r="D17">
+        <v>53.1</v>
+      </c>
+      <c r="E17">
+        <v>50.4</v>
+      </c>
+      <c r="F17">
+        <v>50.8</v>
+      </c>
+      <c r="G17">
+        <v>52.6</v>
+      </c>
+      <c r="H17">
+        <v>-3.42</v>
+      </c>
+      <c r="I17">
+        <v>886</v>
+      </c>
+      <c r="J17">
+        <v>59.482999999999997</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1148781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>14.6</v>
+      </c>
+      <c r="D18">
+        <v>15.2</v>
+      </c>
+      <c r="E18">
+        <v>14.5</v>
+      </c>
+      <c r="F18">
+        <v>14.6</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>-2.67</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2219</v>
+      </c>
+      <c r="J18">
+        <v>176.09200000000001</v>
+      </c>
+      <c r="K18" s="1">
+        <v>11883936</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>48.2</v>
+      </c>
+      <c r="E19">
+        <v>44.7</v>
+      </c>
+      <c r="F19">
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <v>46.3</v>
+      </c>
+      <c r="H19">
+        <v>-2.81</v>
+      </c>
+      <c r="I19" s="1">
+        <v>9260</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1279.9580000000001</v>
+      </c>
+      <c r="K19" s="1">
+        <v>27731912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>56.3</v>
+      </c>
+      <c r="D20">
+        <v>58</v>
+      </c>
+      <c r="E20">
+        <v>55.6</v>
+      </c>
+      <c r="F20">
+        <v>56.3</v>
+      </c>
+      <c r="G20">
+        <v>58</v>
+      </c>
+      <c r="H20">
+        <v>-2.93</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3415</v>
+      </c>
+      <c r="J20">
+        <v>233.875</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4124753</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>188.6</v>
+      </c>
+      <c r="D21">
+        <v>194.5</v>
+      </c>
+      <c r="E21">
+        <v>187.3</v>
+      </c>
+      <c r="F21">
+        <v>188.6</v>
+      </c>
+      <c r="G21">
+        <v>205.2</v>
+      </c>
+      <c r="H21">
+        <v>-8.09</v>
+      </c>
+      <c r="I21">
+        <v>648</v>
+      </c>
+      <c r="J21">
+        <v>48.051000000000002</v>
+      </c>
+      <c r="K21" s="1">
+        <v>255221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>244.9</v>
+      </c>
+      <c r="D22">
+        <v>244.9</v>
+      </c>
+      <c r="E22">
+        <v>241</v>
+      </c>
+      <c r="F22">
+        <v>241.3</v>
+      </c>
+      <c r="G22">
+        <v>243</v>
+      </c>
+      <c r="H22">
+        <v>0.78</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>185</v>
+      </c>
+      <c r="D23">
+        <v>190</v>
+      </c>
+      <c r="E23">
+        <v>182.8</v>
+      </c>
+      <c r="F23">
+        <v>184.5</v>
+      </c>
+      <c r="G23">
+        <v>185.1</v>
+      </c>
+      <c r="H23">
+        <v>-0.05</v>
+      </c>
+      <c r="I23">
+        <v>407</v>
+      </c>
+      <c r="J23">
+        <v>71.466999999999999</v>
+      </c>
+      <c r="K23" s="1">
+        <v>380130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>199.7</v>
+      </c>
+      <c r="D24">
+        <v>202.1</v>
+      </c>
+      <c r="E24">
+        <v>198.1</v>
+      </c>
+      <c r="F24">
+        <v>199.7</v>
+      </c>
+      <c r="G24">
+        <v>200.4</v>
+      </c>
+      <c r="H24">
+        <v>-0.35</v>
+      </c>
+      <c r="I24">
+        <v>186</v>
+      </c>
+      <c r="J24">
+        <v>4.9219999999999997</v>
+      </c>
+      <c r="K24" s="1">
+        <v>24698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>25.4</v>
+      </c>
+      <c r="D25">
+        <v>26.5</v>
+      </c>
+      <c r="E25">
+        <v>25.3</v>
+      </c>
+      <c r="F25">
+        <v>25.6</v>
+      </c>
+      <c r="G25">
+        <v>25.8</v>
+      </c>
+      <c r="H25">
+        <v>-1.55</v>
+      </c>
+      <c r="I25">
+        <v>123</v>
+      </c>
+      <c r="J25">
+        <v>2.7090000000000001</v>
+      </c>
+      <c r="K25" s="1">
+        <v>104893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1160.3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1162</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1150</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1157.7</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1154.7</v>
+      </c>
+      <c r="H26">
+        <v>0.48</v>
+      </c>
+      <c r="I26">
+        <v>214</v>
+      </c>
+      <c r="J26">
+        <v>13.803000000000001</v>
+      </c>
+      <c r="K26" s="1">
+        <v>11917</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>179.8</v>
+      </c>
+      <c r="D27">
+        <v>182.8</v>
+      </c>
+      <c r="E27">
+        <v>179.8</v>
+      </c>
+      <c r="F27">
+        <v>180.2</v>
+      </c>
+      <c r="G27">
+        <v>182.6</v>
+      </c>
+      <c r="H27">
+        <v>-1.53</v>
+      </c>
+      <c r="I27">
+        <v>505</v>
+      </c>
+      <c r="J27">
+        <v>40.747999999999998</v>
+      </c>
+      <c r="K27" s="1">
+        <v>225226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>230.3</v>
+      </c>
+      <c r="D28">
+        <v>231.9</v>
+      </c>
+      <c r="E28">
+        <v>228</v>
+      </c>
+      <c r="F28">
+        <v>230.3</v>
+      </c>
+      <c r="G28">
+        <v>229.7</v>
+      </c>
+      <c r="H28">
+        <v>0.26</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1475</v>
+      </c>
+      <c r="J28">
+        <v>217.49100000000001</v>
+      </c>
+      <c r="K28" s="1">
+        <v>947209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>51.7</v>
+      </c>
+      <c r="D29">
+        <v>55.1</v>
+      </c>
+      <c r="E29">
+        <v>51.3</v>
+      </c>
+      <c r="F29">
+        <v>51.7</v>
+      </c>
+      <c r="G29">
+        <v>53.8</v>
+      </c>
+      <c r="H29">
+        <v>-3.9</v>
+      </c>
+      <c r="I29" s="1">
+        <v>7001</v>
+      </c>
+      <c r="J29">
+        <v>640.73299999999995</v>
+      </c>
+      <c r="K29" s="1">
+        <v>12059555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>35.9</v>
+      </c>
+      <c r="D30">
+        <v>37</v>
+      </c>
+      <c r="E30">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F30">
+        <v>35.9</v>
+      </c>
+      <c r="G30">
+        <v>36.6</v>
+      </c>
+      <c r="H30">
+        <v>-1.91</v>
+      </c>
+      <c r="I30">
+        <v>603</v>
+      </c>
+      <c r="J30">
+        <v>21.748000000000001</v>
+      </c>
+      <c r="K30" s="1">
+        <v>604242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>274.60000000000002</v>
+      </c>
+      <c r="D31">
+        <v>275.89999999999998</v>
+      </c>
+      <c r="E31">
+        <v>270</v>
+      </c>
+      <c r="F31">
+        <v>274.60000000000002</v>
+      </c>
+      <c r="G31">
+        <v>269.8</v>
+      </c>
+      <c r="H31">
+        <v>1.78</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1149</v>
+      </c>
+      <c r="J31">
+        <v>65.233000000000004</v>
+      </c>
+      <c r="K31" s="1">
+        <v>238531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
